--- a/7658-testing-scenarios.xlsx
+++ b/7658-testing-scenarios.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GEP_Projects\SSDL-7658\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896C8B62-5C12-4EE9-9F07-A02C84C4E506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC558379-7453-4202-B7EC-171D0E76ABFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{86BB79E0-6393-478F-B60B-DA1B82C6D223}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{86BB79E0-6393-478F-B60B-DA1B82C6D223}"/>
   </bookViews>
   <sheets>
     <sheet name="Changing main table" sheetId="1" r:id="rId1"/>
+    <sheet name="estimation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>Action 1</t>
   </si>
@@ -145,12 +146,168 @@
 irrespective of which circle is saved.</t>
     </r>
   </si>
+  <si>
+    <t>Story Id</t>
+  </si>
+  <si>
+    <t>Assignee</t>
+  </si>
+  <si>
+    <t>Started date</t>
+  </si>
+  <si>
+    <t>Estimate (days)</t>
+  </si>
+  <si>
+    <t>Approx deadline</t>
+  </si>
+  <si>
+    <t>Testing buffer</t>
+  </si>
+  <si>
+    <t>Actual deadline</t>
+  </si>
+  <si>
+    <t>SSDL-10685</t>
+  </si>
+  <si>
+    <t>Basic Detail changes</t>
+  </si>
+  <si>
+    <t>Akshay</t>
+  </si>
+  <si>
+    <t>SSDL-10917</t>
+  </si>
+  <si>
+    <t>.NET maintenance changes</t>
+  </si>
+  <si>
+    <t>Akshay/Vishal S</t>
+  </si>
+  <si>
+    <t>SSDL-10701</t>
+  </si>
+  <si>
+    <t>Project Setup part 1</t>
+  </si>
+  <si>
+    <t>Gopinadh</t>
+  </si>
+  <si>
+    <t>SSDL-10913</t>
+  </si>
+  <si>
+    <t>Custom column UI + API changes</t>
+  </si>
+  <si>
+    <t>Vishal S</t>
+  </si>
+  <si>
+    <t>SSDL-10690</t>
+  </si>
+  <si>
+    <t>Load data changes</t>
+  </si>
+  <si>
+    <t>SSDL-10694</t>
+  </si>
+  <si>
+    <t>Consolidation changes</t>
+  </si>
+  <si>
+    <t>SSDL-10697</t>
+  </si>
+  <si>
+    <t>Profile changes</t>
+  </si>
+  <si>
+    <t>SSDL-10700</t>
+  </si>
+  <si>
+    <t>VNE changes</t>
+  </si>
+  <si>
+    <t>SSDL-10699</t>
+  </si>
+  <si>
+    <t>Classify changes</t>
+  </si>
+  <si>
+    <t>Vishal S/Gopi</t>
+  </si>
+  <si>
+    <t>SSDL-10698</t>
+  </si>
+  <si>
+    <t>Publish changes</t>
+  </si>
+  <si>
+    <t>SSDL-10696</t>
+  </si>
+  <si>
+    <t>Import Utility changes</t>
+  </si>
+  <si>
+    <t>SSDL-10695</t>
+  </si>
+  <si>
+    <t>Export Utility changes</t>
+  </si>
+  <si>
+    <t>SSDL-10759</t>
+  </si>
+  <si>
+    <t>RWB changes</t>
+  </si>
+  <si>
+    <t>Vishal K</t>
+  </si>
+  <si>
+    <t>SSDL-10606</t>
+  </si>
+  <si>
+    <t>ADB &amp; .NET Integration</t>
+  </si>
+  <si>
+    <t>Gopi/Vishal S/Akshay</t>
+  </si>
+  <si>
+    <t>SSDL-10907</t>
+  </si>
+  <si>
+    <t>Message processing for schema change part 1</t>
+  </si>
+  <si>
+    <t>Pratik</t>
+  </si>
+  <si>
+    <t>SSDL-10921</t>
+  </si>
+  <si>
+    <t>API automation with postman</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>QC deadline (max)</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>Prod</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,8 +329,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,8 +351,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -195,11 +365,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -207,8 +393,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -523,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CDC99E-2491-4287-8839-98BA76988B21}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="A9:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -639,4 +831,421 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0E753A-8C5F-4A7B-8CF4-9B126E464582}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="6">
+        <v>44613</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7">
+        <f>WORKDAY(D2, E2 - 1)</f>
+        <v>44614</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7">
+        <f>WORKDAY(F2, G2)</f>
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="6">
+        <v>44613</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7">
+        <f>WORKDAY(D3, E3 - 1)</f>
+        <v>44614</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="6">
+        <v>44610</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7">
+        <f>WORKDAY(D4, E4 - 1)</f>
+        <v>44628</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="7">
+        <f>WORKDAY(F4, G4) -1</f>
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="6">
+        <v>44616</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5" s="7">
+        <f>WORKDAY(D5, E5 - 1)</f>
+        <v>44624</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="6">
+        <v>44621</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7">
+        <f>WORKDAY(D7, E7 - 1)</f>
+        <v>44629</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="6">
+        <v>44627</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7">
+        <f>WORKDAY(D8, E8 - 1)</f>
+        <v>44631</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="6">
+        <v>44634</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7">
+        <f>WORKDAY(D9, E9 - 1)</f>
+        <v>44638</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="6">
+        <v>44631</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10" s="7">
+        <f>WORKDAY(D10, E10 - 1)</f>
+        <v>44638</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="6">
+        <v>44641</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7">
+        <f>WORKDAY(D11, E11 - 1)</f>
+        <v>44644</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="6">
+        <v>44630</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <f>WORKDAY(D12, E12 - 1)</f>
+        <v>44630</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="6">
+        <v>44631</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <f>WORKDAY(D13, E13 - 1)</f>
+        <v>44631</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="6">
+        <v>44630</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15" s="7">
+        <f>WORKDAY(D15, E15 - 1)</f>
+        <v>44641</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="7">
+        <f>MAX(F2:F16)</f>
+        <v>44644</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="6">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="6">
+        <v>44666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/7658-testing-scenarios.xlsx
+++ b/7658-testing-scenarios.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GEP_Projects\SSDL-7658\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gopinadh.Vennagiri1\source\repos\SSDL-7658\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC558379-7453-4202-B7EC-171D0E76ABFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183ECF29-7F52-49F6-9C95-A2826CF4FEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{86BB79E0-6393-478F-B60B-DA1B82C6D223}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{86BB79E0-6393-478F-B60B-DA1B82C6D223}"/>
   </bookViews>
   <sheets>
     <sheet name="Changing main table" sheetId="1" r:id="rId1"/>
     <sheet name="estimation" sheetId="2" r:id="rId2"/>
+    <sheet name="SaveMaintable scenarios" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t>Action 1</t>
   </si>
@@ -301,6 +302,36 @@
   </si>
   <si>
     <t>Prod</t>
+  </si>
+  <si>
+    <t>Opening the pop 1st time</t>
+  </si>
+  <si>
+    <t>ColumnName</t>
+  </si>
+  <si>
+    <t>Selectionstatus</t>
+  </si>
+  <si>
+    <t>IsSelectionMandatory</t>
+  </si>
+  <si>
+    <t>ColumnId</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Selection by user</t>
+  </si>
+  <si>
+    <t>Edit</t>
   </si>
 </sst>
 </file>
@@ -837,7 +868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0E753A-8C5F-4A7B-8CF4-9B126E464582}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1012,7 +1043,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="7">
-        <f>WORKDAY(D7, E7 - 1)</f>
+        <f t="shared" ref="F7:F13" si="0">WORKDAY(D7, E7 - 1)</f>
         <v>44629</v>
       </c>
       <c r="H7" s="7"/>
@@ -1034,7 +1065,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="7">
-        <f>WORKDAY(D8, E8 - 1)</f>
+        <f t="shared" si="0"/>
         <v>44631</v>
       </c>
       <c r="H8" s="7"/>
@@ -1056,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="7">
-        <f>WORKDAY(D9, E9 - 1)</f>
+        <f t="shared" si="0"/>
         <v>44638</v>
       </c>
       <c r="H9" s="7"/>
@@ -1078,7 +1109,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="7">
-        <f>WORKDAY(D10, E10 - 1)</f>
+        <f t="shared" si="0"/>
         <v>44638</v>
       </c>
       <c r="H10" s="7"/>
@@ -1100,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="7">
-        <f>WORKDAY(D11, E11 - 1)</f>
+        <f t="shared" si="0"/>
         <v>44644</v>
       </c>
       <c r="H11" s="7"/>
@@ -1122,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="7">
-        <f>WORKDAY(D12, E12 - 1)</f>
+        <f t="shared" si="0"/>
         <v>44630</v>
       </c>
       <c r="H12" s="7"/>
@@ -1144,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="7">
-        <f>WORKDAY(D13, E13 - 1)</f>
+        <f t="shared" si="0"/>
         <v>44631</v>
       </c>
       <c r="H13" s="7"/>
@@ -1243,6 +1274,229 @@
       </c>
       <c r="F20" s="6">
         <v>44666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABEA37F-7F5D-4BA7-B818-BCA1F676DA2E}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.08984375" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/7658-testing-scenarios.xlsx
+++ b/7658-testing-scenarios.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gopinadh.Vennagiri1\source\repos\SSDL-7658\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GEP_Projects\SSDL-7658\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183ECF29-7F52-49F6-9C95-A2826CF4FEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D880CCC-B0AE-4A38-A3B9-09708219F4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{86BB79E0-6393-478F-B60B-DA1B82C6D223}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="5" xr2:uid="{86BB79E0-6393-478F-B60B-DA1B82C6D223}"/>
   </bookViews>
   <sheets>
     <sheet name="Changing main table" sheetId="1" r:id="rId1"/>
     <sheet name="estimation" sheetId="2" r:id="rId2"/>
     <sheet name="SaveMaintable scenarios" sheetId="3" r:id="rId3"/>
+    <sheet name="Reference table conflict" sheetId="4" r:id="rId4"/>
+    <sheet name="Publish unused selected columns" sheetId="5" r:id="rId5"/>
+    <sheet name="Schema change operation" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="105">
   <si>
     <t>Action 1</t>
   </si>
@@ -332,6 +335,69 @@
   </si>
   <si>
     <t>Edit</t>
+  </si>
+  <si>
+    <t>If Master1 changed in one job
+then copy the same columns configuration
+to other jobs that are using Master1</t>
+  </si>
+  <si>
+    <t>Master1 (Col2, Col3)</t>
+  </si>
+  <si>
+    <t>Main2</t>
+  </si>
+  <si>
+    <t>Master1 (Col1, Col2)</t>
+  </si>
+  <si>
+    <t>Main1</t>
+  </si>
+  <si>
+    <t>After multi main table story</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Reference master table
+(Master Based Normalization)</t>
+  </si>
+  <si>
+    <t>Main table</t>
+  </si>
+  <si>
+    <t>JobId</t>
+  </si>
+  <si>
+    <t>Before multi main table story</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Col3</t>
+  </si>
+  <si>
+    <t>Col2</t>
+  </si>
+  <si>
+    <t>Col1</t>
+  </si>
+  <si>
+    <t>is active (i.e. used in anywhere between consolidation to publish)</t>
+  </si>
+  <si>
+    <t>is selected</t>
+  </si>
+  <si>
+    <t>MainTable1</t>
   </si>
 </sst>
 </file>
@@ -1285,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABEA37F-7F5D-4BA7-B818-BCA1F676DA2E}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1502,4 +1568,184 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADFA7C4-F855-4C64-837C-0E9C88863BAC}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="137.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53AC93B-F4F2-41F3-9E43-A988EF8EF5C2}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD4BA18-50AF-4245-B40F-28ABCDB16AAC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/7658-testing-scenarios.xlsx
+++ b/7658-testing-scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GEP_Projects\SSDL-7658\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D880CCC-B0AE-4A38-A3B9-09708219F4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98271100-8F46-4EFA-A78D-C73342454BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="5" xr2:uid="{86BB79E0-6393-478F-B60B-DA1B82C6D223}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="4" xr2:uid="{86BB79E0-6393-478F-B60B-DA1B82C6D223}"/>
   </bookViews>
   <sheets>
     <sheet name="Changing main table" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -477,12 +477,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -495,6 +510,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -1678,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53AC93B-F4F2-41F3-9E43-A988EF8EF5C2}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1690,46 +1706,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1742,7 +1758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD4BA18-50AF-4245-B40F-28ABCDB16AAC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
